--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug/toolkit/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/Library/CloudStorage/OneDrive-Personal/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{CB6E7DB3-3A96-4649-ACCF-674E2101EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA80180-1BC4-914E-8856-676BB7A06C70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59253BDA-01CC-C142-B312-A4B0FDFD7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24260" activeTab="3" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Lift</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Back Hyperextension</t>
+  </si>
+  <si>
+    <t>Farmers Carry</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8207F0-C9C2-604E-A375-6CAF3A0DA2A3}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -857,10 +862,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8F0F7-407A-0C45-9397-8FA0C20E56A9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,6 +969,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/Library/CloudStorage/OneDrive-Personal/GitHub/geocoug/toolkit/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59253BDA-01CC-C142-B312-A4B0FDFD7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{59253BDA-01CC-C142-B312-A4B0FDFD7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D516BEBD-77B8-1148-AFF5-BE26CFD536BE}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24260" activeTab="3" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24260" activeTab="1" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Back-Biceps-Abs" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Kettlebell Swing</t>
   </si>
   <si>
-    <t>Dumbbell Shrugs</t>
-  </si>
-  <si>
     <t>Barbell Shrugs</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Farmers Carry</t>
+  </si>
+  <si>
+    <t>Dumbbell Press</t>
   </si>
 </sst>
 </file>
@@ -509,11 +509,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3C11C-73CE-304C-B13C-F9FD3DC9A2A4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -607,34 +605,45 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>15</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>25</v>
       </c>
     </row>
@@ -647,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4E81E3-F197-394F-B96A-34A73554A4BF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +730,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -732,18 +741,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -762,7 +771,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,7 +800,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -824,7 +833,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -862,11 +871,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8F0F7-407A-0C45-9397-8FA0C20E56A9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -927,7 +934,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -960,23 +967,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug/toolkit/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/Library/CloudStorage/OneDrive-Personal/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{59253BDA-01CC-C142-B312-A4B0FDFD7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D516BEBD-77B8-1148-AFF5-BE26CFD536BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2304BEF0-6A92-DB49-A956-4CA8F0922A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24260" activeTab="1" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
+    <workbookView xWindow="42220" yWindow="-20260" windowWidth="20560" windowHeight="20340" activeTab="4" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Back-Biceps-Abs" sheetId="1" r:id="rId1"/>
     <sheet name="Chest-Triceps" sheetId="2" r:id="rId2"/>
     <sheet name="Legs" sheetId="3" r:id="rId3"/>
     <sheet name="Shoulders-Traps" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Lift</t>
   </si>
@@ -158,16 +159,64 @@
   </si>
   <si>
     <t>Dumbbell Press</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Cardio</t>
+  </si>
+  <si>
+    <t>Back, Biceps, Abs</t>
+  </si>
+  <si>
+    <t>Chest &amp; Triceps</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>Shoulders &amp; Trraps</t>
+  </si>
+  <si>
+    <t>Shoulders &amp; Traps</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -656,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4E81E3-F197-394F-B96A-34A73554A4BF}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,4 +1028,155 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A96E5-05A4-0D42-A424-79CE6CD41898}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/Library/CloudStorage/OneDrive-Personal/GitHub/geocoug/toolkit/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2304BEF0-6A92-DB49-A956-4CA8F0922A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2304BEF0-6A92-DB49-A956-4CA8F0922A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1BBE39-FEFC-1C42-8960-6BB747C7675F}"/>
   <bookViews>
-    <workbookView xWindow="42220" yWindow="-20260" windowWidth="20560" windowHeight="20340" activeTab="4" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24280" activeTab="5" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Back-Biceps-Abs" sheetId="1" r:id="rId1"/>
     <sheet name="Chest-Triceps" sheetId="2" r:id="rId2"/>
     <sheet name="Legs" sheetId="3" r:id="rId3"/>
     <sheet name="Shoulders-Traps" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Schedule" sheetId="5" r:id="rId5"/>
+    <sheet name="John-Push" sheetId="6" r:id="rId6"/>
+    <sheet name="John-Pull" sheetId="7" r:id="rId7"/>
+    <sheet name="John-Legs" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>Lift</t>
   </si>
@@ -201,13 +204,118 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>How-To</t>
+  </si>
+  <si>
+    <t>Dumbbell Bench Press</t>
+  </si>
+  <si>
+    <t>Dumbell Incline Press</t>
+  </si>
+  <si>
+    <t>Dumbbell Flys</t>
+  </si>
+  <si>
+    <t>Tricep Push Down</t>
+  </si>
+  <si>
+    <t>Sit-ups</t>
+  </si>
+  <si>
+    <t>Cable Rows</t>
+  </si>
+  <si>
+    <t>Upright Rows</t>
+  </si>
+  <si>
+    <t>Dumbbell Curls</t>
+  </si>
+  <si>
+    <t>Farmer Carry</t>
+  </si>
+  <si>
+    <t>Kettlebell Deadlift</t>
+  </si>
+  <si>
+    <t>Half Squat</t>
+  </si>
+  <si>
+    <t>1 leg balance</t>
+  </si>
+  <si>
+    <t>30 sec</t>
+  </si>
+  <si>
+    <t>Bird Dog</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://weighttraining.guide/exercises/barbell-deadlift/"&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-squat/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/standing-dumbbell-one-leg-calf-raise/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/hyperextension/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://www.verywellfit.com/how-to-do-the-bird-dog-exercise-3498253'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/straight-back-seated-cable-row/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/bent-over-dumbbell-row/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-wide-grip-upright-row/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/seated-alternating-dumbbell-curl/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-hammer-curl/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-farmers-walk/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-bench-press/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/incline-dumbbell-bench-press/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-fly/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/cable-one-arm-lateral-raise/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/seated-dumbbell-front-raise/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/triceps-push-down/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/front-plank/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/sit-up/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://weighttraining.guide/exercises/seated-knee-raise/'&gt;View&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +328,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,8 +367,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,9 +690,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -586,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -597,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -608,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -619,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -630,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -641,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -652,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -663,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -674,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -685,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -709,9 +837,9 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -733,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -744,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -755,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -766,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -777,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -788,7 +916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -799,7 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -823,9 +951,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -847,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -858,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -869,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -880,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -891,7 +1019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -902,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -924,9 +1052,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -948,7 +1076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -959,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -970,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -981,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -992,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1003,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1014,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1034,9 +1162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A96E5-05A4-0D42-A424-79CE6CD41898}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -1045,7 +1173,7 @@
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1071,7 +1199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1097,7 +1225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1123,7 +1251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1149,7 +1277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1179,4 +1307,381 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66115A2-F7BB-0142-8BE6-1212D3F4745D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAA6EF-C076-1A40-B827-2A0EF6A947F7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA328CD7-D52E-6148-98AF-351AC996FD22}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{2304BEF0-6A92-DB49-A956-4CA8F0922A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1BBE39-FEFC-1C42-8960-6BB747C7675F}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{2304BEF0-6A92-DB49-A956-4CA8F0922A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E3AAF8-4FB5-8742-8A4B-DCE5807D8EF0}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="24280" activeTab="5" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" activeTab="4" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Back-Biceps-Abs" sheetId="1" r:id="rId1"/>
+    <sheet name="Back-Biceps" sheetId="1" r:id="rId1"/>
     <sheet name="Chest-Triceps" sheetId="2" r:id="rId2"/>
     <sheet name="Legs" sheetId="3" r:id="rId3"/>
     <sheet name="Shoulders-Traps" sheetId="4" r:id="rId4"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Lift</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Ab Roller</t>
   </si>
   <si>
-    <t>Russian Twist</t>
-  </si>
-  <si>
     <t>Back Hyperextension</t>
   </si>
   <si>
@@ -188,18 +185,12 @@
     <t>Cardio</t>
   </si>
   <si>
-    <t>Back, Biceps, Abs</t>
-  </si>
-  <si>
     <t>Chest &amp; Triceps</t>
   </si>
   <si>
     <t>Legs</t>
   </si>
   <si>
-    <t>Shoulders &amp; Trraps</t>
-  </si>
-  <si>
     <t>Shoulders &amp; Traps</t>
   </si>
   <si>
@@ -309,6 +300,39 @@
   </si>
   <si>
     <t>&lt;a href='https://weighttraining.guide/exercises/seated-knee-raise/'&gt;View&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Leg Kickbacks</t>
+  </si>
+  <si>
+    <t>30 seconds</t>
+  </si>
+  <si>
+    <t>Scissor Kicks</t>
+  </si>
+  <si>
+    <t>L-sit</t>
+  </si>
+  <si>
+    <t>Toe Taps</t>
+  </si>
+  <si>
+    <t>Sitting Twists</t>
+  </si>
+  <si>
+    <t>Wipers</t>
+  </si>
+  <si>
+    <t>Chest &amp; Triceps, Run</t>
+  </si>
+  <si>
+    <t>Back &amp; Biceps</t>
+  </si>
+  <si>
+    <t>Shoulders &amp; Traps, Run</t>
+  </si>
+  <si>
+    <t>Back &amp; Biceps, Run</t>
   </si>
 </sst>
 </file>
@@ -782,7 +806,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -831,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4E81E3-F197-394F-B96A-34A73554A4BF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -907,7 +931,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -929,13 +953,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8207F0-C9C2-604E-A375-6CAF3A0DA2A3}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1010,10 +1045,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1021,7 +1056,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1032,12 +1067,23 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
     </row>
@@ -1048,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8F0F7-407A-0C45-9397-8FA0C20E56A9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1133,7 +1179,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1144,13 +1190,57 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A96E5-05A4-0D42-A424-79CE6CD41898}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1175,28 +1265,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1204,25 +1294,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1230,25 +1320,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1256,25 +1346,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1282,25 +1372,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66115A2-F7BB-0142-8BE6-1212D3F4745D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1328,12 +1418,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -1342,12 +1432,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1356,12 +1446,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1370,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -1384,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
@@ -1398,12 +1488,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1412,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
@@ -1426,12 +1516,12 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -1440,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
@@ -1454,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1557,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1483,12 +1573,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -1497,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -1511,12 +1601,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1525,12 +1615,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -1539,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
@@ -1553,12 +1643,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1567,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1596,12 +1686,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -1610,12 +1700,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -1624,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -1638,24 +1728,24 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -1664,12 +1754,12 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1678,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug/toolkit/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/Library/Mobile Documents/com~apple~CloudDocs/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{2304BEF0-6A92-DB49-A956-4CA8F0922A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E3AAF8-4FB5-8742-8A4B-DCE5807D8EF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F60AD-BCE1-8340-A83A-A5F3C34696A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" activeTab="4" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Back-Biceps" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>Lift</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Back &amp; Biceps, Run</t>
+  </si>
+  <si>
+    <t>Face Pulls</t>
   </si>
 </sst>
 </file>
@@ -710,9 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3C11C-73CE-304C-B13C-F9FD3DC9A2A4}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -773,7 +778,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -784,10 +789,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -795,7 +800,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -806,10 +811,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -817,34 +822,45 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>25</v>
       </c>
     </row>
@@ -1252,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799A96E5-05A4-0D42-A424-79CE6CD41898}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/static/workouts.xlsx
+++ b/static/workouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/Library/Mobile Documents/com~apple~CloudDocs/GitHub/geocoug/toolkit/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgrant/GitHub/geocoug/toolkit/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F60AD-BCE1-8340-A83A-A5F3C34696A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FCE1AD-679E-2F46-B1CC-57B519BFC52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" activeTab="7" xr2:uid="{33B94D11-EE83-ED43-B23D-BCAC305DFE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Back-Biceps" sheetId="1" r:id="rId1"/>
@@ -242,66 +242,6 @@
     <t>Bird Dog</t>
   </si>
   <si>
-    <t>&lt;a href="https://weighttraining.guide/exercises/barbell-deadlift/"&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-squat/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/standing-dumbbell-one-leg-calf-raise/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/hyperextension/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://www.verywellfit.com/how-to-do-the-bird-dog-exercise-3498253'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/straight-back-seated-cable-row/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/bent-over-dumbbell-row/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-wide-grip-upright-row/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/seated-alternating-dumbbell-curl/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-hammer-curl/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-farmers-walk/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-bench-press/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/incline-dumbbell-bench-press/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/dumbbell-fly/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/cable-one-arm-lateral-raise/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/seated-dumbbell-front-raise/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/triceps-push-down/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/front-plank/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/sit-up/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://weighttraining.guide/exercises/seated-knee-raise/'&gt;View&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Leg Kickbacks</t>
   </si>
   <si>
@@ -336,6 +276,66 @@
   </si>
   <si>
     <t>Face Pulls</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/seated-knee-raise/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/dumbbell-bench-press/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/incline-dumbbell-bench-press/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/dumbbell-fly/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/cable-one-arm-lateral-raise/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/seated-dumbbell-front-raise/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/triceps-push-down/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/front-plank/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/sit-up/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/straight-back-seated-cable-row/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/bent-over-dumbbell-row/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/dumbbell-wide-grip-upright-row/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/seated-alternating-dumbbell-curl/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/dumbbell-hammer-curl/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/dumbbell-farmers-walk/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/barbell-deadlift/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/dumbbell-squat/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/standing-dumbbell-one-leg-calf-raise/)</t>
+  </si>
+  <si>
+    <t>[View](https://weighttraining.guide/exercises/hyperextension/)</t>
+  </si>
+  <si>
+    <t>[View](https://www.verywellfit.com/how-to-do-the-bird-dog-exercise-3498253)</t>
   </si>
 </sst>
 </file>
@@ -394,11 +394,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +418,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -705,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3C11C-73CE-304C-B13C-F9FD3DC9A2A4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +779,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -969,7 +970,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -980,7 +981,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1061,7 +1062,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1228,18 +1229,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1250,7 +1251,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1313,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -1339,19 +1340,19 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
@@ -1365,19 +1366,19 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -1391,19 +1392,19 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
@@ -1419,7 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66115A2-F7BB-0142-8BE6-1212D3F4745D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1448,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -1462,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -1476,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -1490,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
@@ -1504,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
@@ -1518,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
@@ -1532,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
@@ -1546,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
@@ -1559,8 +1562,8 @@
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
+      <c r="D10" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1573,10 +1576,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
       <c r="A1" s="1" t="s">
@@ -1603,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -1617,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -1631,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -1645,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
@@ -1659,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
@@ -1673,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1685,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA328CD7-D52E-6148-98AF-351AC996FD22}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1716,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -1730,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -1744,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -1770,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
@@ -1784,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
